--- a/data/acl.xlsx
+++ b/data/acl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_acl" sheetId="1" r:id="rId1"/>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/acl.xlsx
+++ b/data/acl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="set_acl" sheetId="1" r:id="rId1"/>
@@ -523,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acl -a set -d 1 -t clone -s "role=group,acl=deny,name=test_acl_group_6"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acl -t nasshare -d 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,6 +698,10 @@
   </si>
   <si>
     <t>acl -a set -d 0 -t clone -s</t>
+  </si>
+  <si>
+    <t>acl -a set -d 1 -t clone -s "role=a,acl=deny,name=test_acl_group_6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,7 +1254,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -1268,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>121</v>
@@ -1282,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
         <v>122</v>
@@ -1296,7 +1296,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
         <v>123</v>
@@ -1310,7 +1310,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>124</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -1341,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1576,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1786,49 +1786,49 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
       </c>
       <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
         <v>143</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
       </c>
       <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
         <v>148</v>
-      </c>
-      <c r="D5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1955,7 +1955,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2127,39 +2127,39 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>

--- a/data/acl.xlsx
+++ b/data/acl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="set_acl" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="186">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
   </si>
   <si>
     <t>acl -d 100 -t clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -d 100 -t nasshare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1047,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,7 +1073,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1086,12 +1082,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1100,12 +1096,12 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1114,12 +1110,12 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1128,12 +1124,12 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1142,12 +1138,12 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1156,49 +1152,49 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1228,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1240,7 +1236,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1248,7 +1244,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1256,7 +1252,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1264,7 +1260,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1272,7 +1268,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1280,7 +1276,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1288,7 +1284,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1296,7 +1292,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1304,7 +1300,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1312,7 +1308,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1320,7 +1316,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1328,7 +1324,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1336,7 +1332,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1344,7 +1340,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1374,7 +1370,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1383,12 +1379,12 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1397,12 +1393,12 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1411,12 +1407,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1425,12 +1421,12 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1439,12 +1435,12 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1453,57 +1449,57 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1520,10 +1516,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1543,22 +1539,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>86</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -1571,44 +1567,44 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>143</v>
       </c>
-      <c r="B24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>144</v>
-      </c>
-      <c r="D24" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1627,18 +1623,18 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -1651,7 +1647,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -1659,7 +1655,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -1667,7 +1663,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -1675,7 +1671,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -1683,23 +1679,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -1707,7 +1703,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -1715,7 +1711,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -1723,7 +1719,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1731,7 +1727,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -1739,7 +1735,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1747,7 +1743,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1795,7 +1791,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1812,10 +1808,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1871,22 +1867,22 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1965,44 +1961,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2087,18 +2083,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2109,15 +2105,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="91.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2147,15 +2143,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2163,15 +2159,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -2179,10 +2175,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -2195,31 +2191,31 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2227,7 +2223,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -2235,7 +2231,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2243,7 +2239,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -2251,7 +2247,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -2259,7 +2255,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -2267,17 +2263,9 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2311,15 +2299,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2327,7 +2315,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2335,7 +2323,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2343,7 +2331,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2351,7 +2339,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2359,7 +2347,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2367,7 +2355,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2375,7 +2363,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2383,7 +2371,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>

--- a/data/acl.xlsx
+++ b/data/acl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="set_acl" sheetId="1" r:id="rId1"/>
@@ -408,18 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_acl_0                                      ro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_acl_1                                      rw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_acl_2                                      deny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>signle nas user should can set unset permissions on clone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,15 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_acl_group_0                                ro</t>
-  </si>
-  <si>
-    <t>test_acl_group_1                                rw</t>
-  </si>
-  <si>
-    <t>test_acl_group_2                                deny</t>
-  </si>
-  <si>
     <t>test_acl_group_4                                ro</t>
   </si>
   <si>
@@ -695,6 +674,24 @@
   <si>
     <t>acl -t clone -d 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_acl_0                              ro</t>
+  </si>
+  <si>
+    <t>test_acl_1                              rw</t>
+  </si>
+  <si>
+    <t>test_acl_2                              deny</t>
+  </si>
+  <si>
+    <t>test_acl_group_0                        ro</t>
+  </si>
+  <si>
+    <t>test_acl_group_1                        rw</t>
+  </si>
+  <si>
+    <t>test_acl_group_2                        deny</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,7 +1049,7 @@
     <col min="1" max="1" width="79.25" customWidth="1"/>
     <col min="2" max="2" width="65.25" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.75" customWidth="1"/>
+    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -1073,7 +1070,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1124,12 +1121,12 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1138,12 +1135,12 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1152,49 +1149,49 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1249,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1260,7 +1257,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1268,7 +1265,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1284,7 +1281,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1421,12 +1418,12 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1435,12 +1432,12 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1449,57 +1446,57 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1516,10 +1513,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
         <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1567,30 +1564,30 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -1601,7 +1598,7 @@
         <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
@@ -1623,7 +1620,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -1647,7 +1644,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -1655,7 +1652,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -1663,7 +1660,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -1671,7 +1668,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -1679,23 +1676,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -1703,7 +1700,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -1711,7 +1708,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1735,7 +1732,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1743,7 +1740,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1791,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1808,10 +1805,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1961,7 +1958,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -1970,21 +1967,21 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2083,7 +2080,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -2107,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2159,7 +2156,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -2167,7 +2164,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2183,7 +2180,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2191,23 +2188,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2215,7 +2212,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2315,7 +2312,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2323,7 +2320,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2339,7 +2336,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>

--- a/data/acl.xlsx
+++ b/data/acl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="set_acl" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="188">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +692,14 @@
   </si>
   <si>
     <t>test_acl_group_2                        deny</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1040,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1203,143 +1211,192 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.25" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>173</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>73</v>
       </c>
       <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2102,167 +2159,225 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>65</v>
       </c>
       <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2274,103 +2389,137 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61.5" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
     </row>
